--- a/BackTest/2020-01-24 BackTest ABT.xlsx
+++ b/BackTest/2020-01-24 BackTest ABT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N114"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-10222.87612078581</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-10222.87612078581</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-12305.57212078581</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-11767.95582078581</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-11761.44962078581</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-12514.08762078581</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-12764.08762078581</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-12264.08762078581</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-12514.08762078581</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-12514.08762078581</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-13794.27542078581</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>-9556.125220785809</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-8106.125220785809</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-8106.125220785809</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>-5706.125220785809</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>-2956.125220785809</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>-3056.125220785809</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>-3046.125220785809</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>-119309.6795207858</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>-113419.0911207858</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1804,15 @@
         <v>-96629.27392078581</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>-97053.98582078581</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1870,21 @@
         <v>-105463.2426207858</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>153.6</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,24 +1909,21 @@
         <v>-108109.5118207858</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
         <v>151.3</v>
       </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2082,24 +1948,21 @@
         <v>-126068.7839207858</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
         <v>151</v>
       </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2124,24 +1987,19 @@
         <v>-103969.1558207858</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>149</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2166,24 +2024,19 @@
         <v>-104771.5062207858</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2208,24 +2061,19 @@
         <v>-103738.7862207858</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2252,20 +2100,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2292,20 +2137,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2330,24 +2172,21 @@
         <v>-80335.99162078579</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
         <v>149.9</v>
       </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2372,24 +2211,21 @@
         <v>-80335.99162078579</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
         <v>150</v>
       </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2414,22 +2250,21 @@
         <v>-54185.99892078579</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2456,20 +2291,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2496,20 +2328,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2536,20 +2365,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2576,20 +2402,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2616,20 +2439,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2656,20 +2476,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2696,20 +2513,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2736,20 +2550,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2776,20 +2587,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2816,20 +2624,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2856,20 +2661,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2896,20 +2698,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2936,20 +2735,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2974,22 +2770,21 @@
         <v>-55074.23932078577</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3016,20 +2811,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3056,20 +2848,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3096,20 +2885,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3136,20 +2922,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3176,20 +2959,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3216,20 +2996,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3256,20 +3033,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3296,20 +3070,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3336,20 +3107,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3376,20 +3144,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3416,20 +3181,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3456,20 +3218,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3496,20 +3255,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3536,20 +3292,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3576,20 +3329,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3616,20 +3366,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3656,20 +3403,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3696,20 +3440,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3736,20 +3477,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3776,20 +3514,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3816,20 +3551,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3856,20 +3588,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3896,20 +3625,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3936,20 +3662,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3976,20 +3699,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4016,20 +3736,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4056,20 +3773,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4096,20 +3810,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4136,20 +3847,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4176,20 +3884,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4216,20 +3921,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4256,20 +3958,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4296,20 +3995,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4336,20 +4032,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4376,20 +4069,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4416,20 +4106,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4454,24 +4141,21 @@
         <v>-64686.99313806325</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
         <v>145.7</v>
       </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4496,24 +4180,19 @@
         <v>-39649.44623806325</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>144.1</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4538,24 +4217,19 @@
         <v>-39670.12163806325</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>145.9</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4580,24 +4254,19 @@
         <v>-41273.92523806325</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>145.2</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4622,24 +4291,19 @@
         <v>-41273.92523806325</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>145.1</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4664,24 +4328,19 @@
         <v>-38209.15523806325</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>145.1</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4706,24 +4365,19 @@
         <v>-38315.93013806325</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4748,24 +4402,19 @@
         <v>-38215.93013806325</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>146.1</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4790,26 +4439,21 @@
         <v>-39599.87913806325</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>147</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest ABT.xlsx
+++ b/BackTest/2020-01-24 BackTest ABT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-10222.87612078581</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-10222.87612078581</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-10222.87612078581</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-10222.87612078581</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-12305.57212078581</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-11767.95582078581</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-11767.95582078581</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-11761.44962078581</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-12514.08762078581</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-12764.08762078581</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-12264.08762078581</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-12514.08762078581</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-12514.08762078581</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-12538.08762078581</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-12288.08762078581</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-11677.54472078581</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-13794.27542078581</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-12375.12522078581</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-12375.12522078581</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-8256.125220785809</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-9556.125220785809</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-9556.125220785809</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-8106.125220785809</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-8106.125220785809</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-8206.125220785809</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-5706.125220785809</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-2956.125220785809</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-3056.125220785809</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-3046.125220785809</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-119309.6795207858</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-113419.0911207858</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-115215.6252207858</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-96629.27392078581</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-97053.98582078581</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,1768 +1870,1574 @@
         <v>-105463.2426207858</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>153.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="C46" t="n">
+        <v>151</v>
+      </c>
+      <c r="D46" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="E46" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2646.2692</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-108109.5118207858</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>150</v>
+      </c>
+      <c r="C47" t="n">
+        <v>149</v>
+      </c>
+      <c r="D47" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="E47" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="F47" t="n">
+        <v>17959.2721</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-126068.7839207858</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>149</v>
+      </c>
+      <c r="C48" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>151.4</v>
+      </c>
+      <c r="E48" t="n">
+        <v>148</v>
+      </c>
+      <c r="F48" t="n">
+        <v>22099.6281</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-103969.1558207858</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="C49" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="D49" t="n">
+        <v>150</v>
+      </c>
+      <c r="E49" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="F49" t="n">
+        <v>802.3504</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-104771.5062207858</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>150</v>
+      </c>
+      <c r="C50" t="n">
+        <v>149.4</v>
+      </c>
+      <c r="D50" t="n">
+        <v>150</v>
+      </c>
+      <c r="E50" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1032.72</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-103738.7862207858</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="C51" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="D51" t="n">
+        <v>150</v>
+      </c>
+      <c r="E51" t="n">
+        <v>145.1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>16524.3294</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-87214.4568207858</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="D52" t="n">
+        <v>150</v>
+      </c>
+      <c r="E52" t="n">
+        <v>145.1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>4077.2783</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-87214.4568207858</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>149</v>
+      </c>
+      <c r="C53" t="n">
+        <v>150</v>
+      </c>
+      <c r="D53" t="n">
+        <v>150</v>
+      </c>
+      <c r="E53" t="n">
+        <v>147</v>
+      </c>
+      <c r="F53" t="n">
+        <v>6878.4652</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-80335.99162078579</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>150</v>
+      </c>
+      <c r="C54" t="n">
+        <v>150</v>
+      </c>
+      <c r="D54" t="n">
+        <v>150</v>
+      </c>
+      <c r="E54" t="n">
+        <v>150</v>
+      </c>
+      <c r="F54" t="n">
+        <v>9799.9514</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-80335.99162078579</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>150</v>
+      </c>
+      <c r="C55" t="n">
+        <v>153</v>
+      </c>
+      <c r="D55" t="n">
+        <v>154</v>
+      </c>
+      <c r="E55" t="n">
+        <v>147</v>
+      </c>
+      <c r="F55" t="n">
+        <v>26149.9927</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-54185.99892078579</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>153</v>
+      </c>
+      <c r="C56" t="n">
+        <v>154</v>
+      </c>
+      <c r="D56" t="n">
+        <v>154.9</v>
+      </c>
+      <c r="E56" t="n">
+        <v>153</v>
+      </c>
+      <c r="F56" t="n">
+        <v>13393.1757</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-40792.82322078579</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="C57" t="n">
+        <v>150</v>
+      </c>
+      <c r="D57" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="E57" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1768.2212</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-42561.04442078579</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="E58" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>581.7798</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-43142.82422078578</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>146</v>
+      </c>
+      <c r="C59" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="D59" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="E59" t="n">
+        <v>146</v>
+      </c>
+      <c r="F59" t="n">
+        <v>511.0843</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-42631.73992078578</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="C60" t="n">
+        <v>149</v>
+      </c>
+      <c r="D60" t="n">
+        <v>149</v>
+      </c>
+      <c r="E60" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>3508.2794</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-46140.01932078578</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>149</v>
+      </c>
+      <c r="D61" t="n">
+        <v>149</v>
+      </c>
+      <c r="E61" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>333.8262</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-46140.01932078578</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>149</v>
+      </c>
+      <c r="C62" t="n">
+        <v>149</v>
+      </c>
+      <c r="D62" t="n">
+        <v>149</v>
+      </c>
+      <c r="E62" t="n">
+        <v>149</v>
+      </c>
+      <c r="F62" t="n">
+        <v>412.2802</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-46140.01932078578</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>140.1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="D63" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="E63" t="n">
+        <v>140.1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>689.5193</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-46829.53862078578</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>149</v>
+      </c>
+      <c r="C64" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="D64" t="n">
+        <v>149</v>
+      </c>
+      <c r="E64" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3139.6207</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-46829.53862078578</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>149</v>
+      </c>
+      <c r="D65" t="n">
+        <v>149</v>
+      </c>
+      <c r="E65" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2401.3108</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-44428.22782078578</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>143.2</v>
+      </c>
+      <c r="C66" t="n">
+        <v>143.2</v>
+      </c>
+      <c r="D66" t="n">
+        <v>143.2</v>
+      </c>
+      <c r="E66" t="n">
+        <v>143.2</v>
+      </c>
+      <c r="F66" t="n">
+        <v>21.3549</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-44449.58272078578</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>145.1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>149</v>
+      </c>
+      <c r="D67" t="n">
+        <v>149</v>
+      </c>
+      <c r="E67" t="n">
+        <v>145.1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1196.0674</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-43253.51532078578</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>148</v>
+      </c>
+      <c r="D68" t="n">
+        <v>148</v>
+      </c>
+      <c r="E68" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="F68" t="n">
+        <v>9971.6139</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-53225.12922078578</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>142</v>
+      </c>
+      <c r="C69" t="n">
+        <v>147</v>
+      </c>
+      <c r="D69" t="n">
+        <v>147</v>
+      </c>
+      <c r="E69" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1849.1101</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-55074.23932078577</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="C70" t="n">
+        <v>149</v>
+      </c>
+      <c r="D70" t="n">
+        <v>149</v>
+      </c>
+      <c r="E70" t="n">
+        <v>146</v>
+      </c>
+      <c r="F70" t="n">
+        <v>9597.096600000001</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-45477.14272078578</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>147</v>
+      </c>
+      <c r="C71" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="D71" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="E71" t="n">
+        <v>147</v>
+      </c>
+      <c r="F71" t="n">
+        <v>4827.1843</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-40649.95842078578</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>149</v>
+      </c>
+      <c r="C72" t="n">
+        <v>143.3</v>
+      </c>
+      <c r="D72" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="E72" t="n">
+        <v>141</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2920.581</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-43570.53942078578</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>143.3</v>
+      </c>
+      <c r="C73" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="D73" t="n">
+        <v>155</v>
+      </c>
+      <c r="E73" t="n">
+        <v>143.3</v>
+      </c>
+      <c r="F73" t="n">
+        <v>8082.2025</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-35488.33692078578</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>150</v>
+      </c>
+      <c r="C74" t="n">
+        <v>149</v>
+      </c>
+      <c r="D74" t="n">
+        <v>150</v>
+      </c>
+      <c r="E74" t="n">
+        <v>148</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1986.4482</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-37474.78512078577</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="C75" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="D75" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="E75" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="F75" t="n">
+        <v>597.045</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-38071.83012078577</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="C76" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="D76" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="E76" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2913.4063</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-38071.83012078577</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="C77" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="D77" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="E77" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="F77" t="n">
+        <v>114.7151</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-37957.11502078577</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="C78" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="D78" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="E78" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="F78" t="n">
+        <v>852.9092000000001</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-37957.11502078577</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="C79" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="D79" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="E79" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="F79" t="n">
+        <v>159.8557</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-37957.11502078577</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="C80" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="D80" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="E80" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="F80" t="n">
+        <v>3053.1719</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-41010.28692078577</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="C81" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="D81" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="E81" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1207.3549</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-42217.64182078577</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>147.3</v>
+      </c>
+      <c r="C82" t="n">
+        <v>147.3</v>
+      </c>
+      <c r="D82" t="n">
+        <v>147.3</v>
+      </c>
+      <c r="E82" t="n">
+        <v>147.3</v>
+      </c>
+      <c r="F82" t="n">
+        <v>169.575</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-42387.21682078577</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="C83" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="D83" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="E83" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="F83" t="n">
+        <v>338.7219</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-42048.49492078577</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="C84" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="D84" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="E84" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1660.04</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-42048.49492078577</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="C85" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="D85" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="E85" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="F85" t="n">
+        <v>136.306</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-42184.80092078577</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="C86" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="D86" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="E86" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="F86" t="n">
+        <v>278.067</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-42184.80092078577</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>147.3</v>
+      </c>
+      <c r="C87" t="n">
+        <v>149</v>
+      </c>
+      <c r="D87" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="E87" t="n">
+        <v>147.3</v>
+      </c>
+      <c r="F87" t="n">
+        <v>11486.77478272251</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-30698.02613806326</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="C88" t="n">
+        <v>149.2</v>
+      </c>
+      <c r="D88" t="n">
+        <v>149.2</v>
+      </c>
+      <c r="E88" t="n">
+        <v>140</v>
+      </c>
+      <c r="F88" t="n">
+        <v>47218.707</v>
+      </c>
+      <c r="G88" t="n">
+        <v>16520.68086193674</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>147</v>
+      </c>
+      <c r="C89" t="n">
+        <v>146</v>
+      </c>
+      <c r="D89" t="n">
+        <v>148</v>
+      </c>
+      <c r="E89" t="n">
+        <v>146</v>
+      </c>
+      <c r="F89" t="n">
+        <v>191</v>
+      </c>
+      <c r="G89" t="n">
+        <v>16329.68086193674</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>41.875</v>
+      </c>
+      <c r="G90" t="n">
+        <v>16287.80586193674</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>148</v>
+      </c>
+      <c r="C91" t="n">
+        <v>148</v>
+      </c>
+      <c r="D91" t="n">
+        <v>148</v>
+      </c>
+      <c r="E91" t="n">
+        <v>148</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2054.3399</v>
+      </c>
+      <c r="G91" t="n">
+        <v>18342.14576193674</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>144.2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>148</v>
+      </c>
+      <c r="D92" t="n">
+        <v>148</v>
+      </c>
+      <c r="E92" t="n">
+        <v>142</v>
+      </c>
+      <c r="F92" t="n">
+        <v>5682.5478</v>
+      </c>
+      <c r="G92" t="n">
+        <v>18342.14576193674</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>148</v>
+      </c>
+      <c r="J92" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="K92" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="C46" t="n">
-        <v>151</v>
-      </c>
-      <c r="D46" t="n">
-        <v>151.3</v>
-      </c>
-      <c r="E46" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="F46" t="n">
-        <v>2646.2692</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-108109.5118207858</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>151.3</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>150</v>
-      </c>
-      <c r="C47" t="n">
-        <v>149</v>
-      </c>
-      <c r="D47" t="n">
-        <v>151.3</v>
-      </c>
-      <c r="E47" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="F47" t="n">
-        <v>17959.2721</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-126068.7839207858</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>151</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>149</v>
-      </c>
-      <c r="C48" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="D48" t="n">
-        <v>151.4</v>
-      </c>
-      <c r="E48" t="n">
-        <v>148</v>
-      </c>
-      <c r="F48" t="n">
-        <v>22099.6281</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-103969.1558207858</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="C49" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="D49" t="n">
-        <v>150</v>
-      </c>
-      <c r="E49" t="n">
-        <v>147.8</v>
-      </c>
-      <c r="F49" t="n">
-        <v>802.3504</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-104771.5062207858</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>150</v>
-      </c>
-      <c r="C50" t="n">
-        <v>149.4</v>
-      </c>
-      <c r="D50" t="n">
-        <v>150</v>
-      </c>
-      <c r="E50" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1032.72</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-103738.7862207858</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>148.3</v>
-      </c>
-      <c r="C51" t="n">
-        <v>149.9</v>
-      </c>
-      <c r="D51" t="n">
-        <v>150</v>
-      </c>
-      <c r="E51" t="n">
-        <v>145.1</v>
-      </c>
-      <c r="F51" t="n">
-        <v>16524.3294</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-87214.4568207858</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>146.1</v>
-      </c>
-      <c r="C52" t="n">
-        <v>149.9</v>
-      </c>
-      <c r="D52" t="n">
-        <v>150</v>
-      </c>
-      <c r="E52" t="n">
-        <v>145.1</v>
-      </c>
-      <c r="F52" t="n">
-        <v>4077.2783</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-87214.4568207858</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>149</v>
-      </c>
-      <c r="C53" t="n">
-        <v>150</v>
-      </c>
-      <c r="D53" t="n">
-        <v>150</v>
-      </c>
-      <c r="E53" t="n">
-        <v>147</v>
-      </c>
-      <c r="F53" t="n">
-        <v>6878.4652</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-80335.99162078579</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>149.9</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>150</v>
-      </c>
-      <c r="C54" t="n">
-        <v>150</v>
-      </c>
-      <c r="D54" t="n">
-        <v>150</v>
-      </c>
-      <c r="E54" t="n">
-        <v>150</v>
-      </c>
-      <c r="F54" t="n">
-        <v>9799.9514</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-80335.99162078579</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>150</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>150</v>
-      </c>
-      <c r="C55" t="n">
-        <v>153</v>
-      </c>
-      <c r="D55" t="n">
-        <v>154</v>
-      </c>
-      <c r="E55" t="n">
-        <v>147</v>
-      </c>
-      <c r="F55" t="n">
-        <v>26149.9927</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-54185.99892078579</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>150</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>153</v>
-      </c>
-      <c r="C56" t="n">
-        <v>154</v>
-      </c>
-      <c r="D56" t="n">
-        <v>154.9</v>
-      </c>
-      <c r="E56" t="n">
-        <v>153</v>
-      </c>
-      <c r="F56" t="n">
-        <v>13393.1757</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-40792.82322078579</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>155.4</v>
-      </c>
-      <c r="C57" t="n">
-        <v>150</v>
-      </c>
-      <c r="D57" t="n">
-        <v>155.4</v>
-      </c>
-      <c r="E57" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="F57" t="n">
-        <v>1768.2212</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-42561.04442078579</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>143.1</v>
-      </c>
-      <c r="C58" t="n">
-        <v>143.1</v>
-      </c>
-      <c r="D58" t="n">
-        <v>143.1</v>
-      </c>
-      <c r="E58" t="n">
-        <v>143.1</v>
-      </c>
-      <c r="F58" t="n">
-        <v>581.7798</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-43142.82422078578</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>146</v>
-      </c>
-      <c r="C59" t="n">
-        <v>149.7</v>
-      </c>
-      <c r="D59" t="n">
-        <v>149.7</v>
-      </c>
-      <c r="E59" t="n">
-        <v>146</v>
-      </c>
-      <c r="F59" t="n">
-        <v>511.0843</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-42631.73992078578</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="C60" t="n">
-        <v>149</v>
-      </c>
-      <c r="D60" t="n">
-        <v>149</v>
-      </c>
-      <c r="E60" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="F60" t="n">
-        <v>3508.2794</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-46140.01932078578</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>143.1</v>
-      </c>
-      <c r="C61" t="n">
-        <v>149</v>
-      </c>
-      <c r="D61" t="n">
-        <v>149</v>
-      </c>
-      <c r="E61" t="n">
-        <v>143.1</v>
-      </c>
-      <c r="F61" t="n">
-        <v>333.8262</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-46140.01932078578</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>149</v>
-      </c>
-      <c r="C62" t="n">
-        <v>149</v>
-      </c>
-      <c r="D62" t="n">
-        <v>149</v>
-      </c>
-      <c r="E62" t="n">
-        <v>149</v>
-      </c>
-      <c r="F62" t="n">
-        <v>412.2802</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-46140.01932078578</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>140.1</v>
-      </c>
-      <c r="C63" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="D63" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="E63" t="n">
-        <v>140.1</v>
-      </c>
-      <c r="F63" t="n">
-        <v>689.5193</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-46829.53862078578</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>149</v>
-      </c>
-      <c r="C64" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="D64" t="n">
-        <v>149</v>
-      </c>
-      <c r="E64" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="F64" t="n">
-        <v>3139.6207</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-46829.53862078578</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>142.1</v>
-      </c>
-      <c r="C65" t="n">
-        <v>149</v>
-      </c>
-      <c r="D65" t="n">
-        <v>149</v>
-      </c>
-      <c r="E65" t="n">
-        <v>142.1</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2401.3108</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-44428.22782078578</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>143.2</v>
-      </c>
-      <c r="C66" t="n">
-        <v>143.2</v>
-      </c>
-      <c r="D66" t="n">
-        <v>143.2</v>
-      </c>
-      <c r="E66" t="n">
-        <v>143.2</v>
-      </c>
-      <c r="F66" t="n">
-        <v>21.3549</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-44449.58272078578</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>145.1</v>
-      </c>
-      <c r="C67" t="n">
-        <v>149</v>
-      </c>
-      <c r="D67" t="n">
-        <v>149</v>
-      </c>
-      <c r="E67" t="n">
-        <v>145.1</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1196.0674</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-43253.51532078578</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>143.1</v>
-      </c>
-      <c r="C68" t="n">
-        <v>148</v>
-      </c>
-      <c r="D68" t="n">
-        <v>148</v>
-      </c>
-      <c r="E68" t="n">
-        <v>140.6</v>
-      </c>
-      <c r="F68" t="n">
-        <v>9971.6139</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-53225.12922078578</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>142</v>
-      </c>
-      <c r="C69" t="n">
-        <v>147</v>
-      </c>
-      <c r="D69" t="n">
-        <v>147</v>
-      </c>
-      <c r="E69" t="n">
-        <v>140.6</v>
-      </c>
-      <c r="F69" t="n">
-        <v>1849.1101</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-55074.23932078577</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>148</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>146.9</v>
-      </c>
-      <c r="C70" t="n">
-        <v>149</v>
-      </c>
-      <c r="D70" t="n">
-        <v>149</v>
-      </c>
-      <c r="E70" t="n">
-        <v>146</v>
-      </c>
-      <c r="F70" t="n">
-        <v>9597.096600000001</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-45477.14272078578</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>147</v>
-      </c>
-      <c r="C71" t="n">
-        <v>151.9</v>
-      </c>
-      <c r="D71" t="n">
-        <v>151.9</v>
-      </c>
-      <c r="E71" t="n">
-        <v>147</v>
-      </c>
-      <c r="F71" t="n">
-        <v>4827.1843</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-40649.95842078578</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>149</v>
-      </c>
-      <c r="C72" t="n">
-        <v>143.3</v>
-      </c>
-      <c r="D72" t="n">
-        <v>151.9</v>
-      </c>
-      <c r="E72" t="n">
-        <v>141</v>
-      </c>
-      <c r="F72" t="n">
-        <v>2920.581</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-43570.53942078578</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>143.3</v>
-      </c>
-      <c r="C73" t="n">
-        <v>151.9</v>
-      </c>
-      <c r="D73" t="n">
-        <v>155</v>
-      </c>
-      <c r="E73" t="n">
-        <v>143.3</v>
-      </c>
-      <c r="F73" t="n">
-        <v>8082.2025</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-35488.33692078578</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>150</v>
-      </c>
-      <c r="C74" t="n">
-        <v>149</v>
-      </c>
-      <c r="D74" t="n">
-        <v>150</v>
-      </c>
-      <c r="E74" t="n">
-        <v>148</v>
-      </c>
-      <c r="F74" t="n">
-        <v>1986.4482</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-37474.78512078577</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="C75" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="D75" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="E75" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="F75" t="n">
-        <v>597.045</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-38071.83012078577</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="C76" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="D76" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="E76" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="F76" t="n">
-        <v>2913.4063</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-38071.83012078577</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>148.5</v>
-      </c>
-      <c r="C77" t="n">
-        <v>148.5</v>
-      </c>
-      <c r="D77" t="n">
-        <v>148.5</v>
-      </c>
-      <c r="E77" t="n">
-        <v>148.5</v>
-      </c>
-      <c r="F77" t="n">
-        <v>114.7151</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-37957.11502078577</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>148.5</v>
-      </c>
-      <c r="C78" t="n">
-        <v>148.5</v>
-      </c>
-      <c r="D78" t="n">
-        <v>148.5</v>
-      </c>
-      <c r="E78" t="n">
-        <v>148.5</v>
-      </c>
-      <c r="F78" t="n">
-        <v>852.9092000000001</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-37957.11502078577</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>148.5</v>
-      </c>
-      <c r="C79" t="n">
-        <v>148.5</v>
-      </c>
-      <c r="D79" t="n">
-        <v>148.5</v>
-      </c>
-      <c r="E79" t="n">
-        <v>148.5</v>
-      </c>
-      <c r="F79" t="n">
-        <v>159.8557</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-37957.11502078577</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="C80" t="n">
-        <v>148.3</v>
-      </c>
-      <c r="D80" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="E80" t="n">
-        <v>148.3</v>
-      </c>
-      <c r="F80" t="n">
-        <v>3053.1719</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-41010.28692078577</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="C81" t="n">
-        <v>147.5</v>
-      </c>
-      <c r="D81" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="E81" t="n">
-        <v>147.5</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1207.3549</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-42217.64182078577</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>147.3</v>
-      </c>
-      <c r="C82" t="n">
-        <v>147.3</v>
-      </c>
-      <c r="D82" t="n">
-        <v>147.3</v>
-      </c>
-      <c r="E82" t="n">
-        <v>147.3</v>
-      </c>
-      <c r="F82" t="n">
-        <v>169.575</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-42387.21682078577</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="C83" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="D83" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="E83" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="F83" t="n">
-        <v>338.7219</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-42048.49492078577</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="C84" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="D84" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="E84" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1660.04</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-42048.49492078577</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>148.3</v>
-      </c>
-      <c r="C85" t="n">
-        <v>148.3</v>
-      </c>
-      <c r="D85" t="n">
-        <v>148.3</v>
-      </c>
-      <c r="E85" t="n">
-        <v>148.3</v>
-      </c>
-      <c r="F85" t="n">
-        <v>136.306</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-42184.80092078577</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>148.3</v>
-      </c>
-      <c r="C86" t="n">
-        <v>148.3</v>
-      </c>
-      <c r="D86" t="n">
-        <v>148.3</v>
-      </c>
-      <c r="E86" t="n">
-        <v>148.3</v>
-      </c>
-      <c r="F86" t="n">
-        <v>278.067</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-42184.80092078577</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>147.3</v>
-      </c>
-      <c r="C87" t="n">
-        <v>149</v>
-      </c>
-      <c r="D87" t="n">
-        <v>152.9</v>
-      </c>
-      <c r="E87" t="n">
-        <v>147.3</v>
-      </c>
-      <c r="F87" t="n">
-        <v>11486.77478272251</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-30698.02613806326</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>148.3</v>
-      </c>
-      <c r="C88" t="n">
-        <v>149.2</v>
-      </c>
-      <c r="D88" t="n">
-        <v>149.2</v>
-      </c>
-      <c r="E88" t="n">
-        <v>140</v>
-      </c>
-      <c r="F88" t="n">
-        <v>47218.707</v>
-      </c>
-      <c r="G88" t="n">
-        <v>16520.68086193674</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>147</v>
-      </c>
-      <c r="C89" t="n">
-        <v>146</v>
-      </c>
-      <c r="D89" t="n">
-        <v>148</v>
-      </c>
-      <c r="E89" t="n">
-        <v>146</v>
-      </c>
-      <c r="F89" t="n">
-        <v>191</v>
-      </c>
-      <c r="G89" t="n">
-        <v>16329.68086193674</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>143.1</v>
-      </c>
-      <c r="C90" t="n">
-        <v>143.1</v>
-      </c>
-      <c r="D90" t="n">
-        <v>143.1</v>
-      </c>
-      <c r="E90" t="n">
-        <v>143.1</v>
-      </c>
-      <c r="F90" t="n">
-        <v>41.875</v>
-      </c>
-      <c r="G90" t="n">
-        <v>16287.80586193674</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>148</v>
-      </c>
-      <c r="C91" t="n">
-        <v>148</v>
-      </c>
-      <c r="D91" t="n">
-        <v>148</v>
-      </c>
-      <c r="E91" t="n">
-        <v>148</v>
-      </c>
-      <c r="F91" t="n">
-        <v>2054.3399</v>
-      </c>
-      <c r="G91" t="n">
-        <v>18342.14576193674</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>144.2</v>
-      </c>
-      <c r="C92" t="n">
-        <v>148</v>
-      </c>
-      <c r="D92" t="n">
-        <v>148</v>
-      </c>
-      <c r="E92" t="n">
-        <v>142</v>
-      </c>
-      <c r="F92" t="n">
-        <v>5682.5478</v>
-      </c>
-      <c r="G92" t="n">
-        <v>18342.14576193674</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3660,10 +3466,14 @@
         <v>17070.72326193674</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>148</v>
+      </c>
+      <c r="J93" t="n">
+        <v>143.1</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3697,10 +3507,14 @@
         <v>17074.65686193674</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>144</v>
+      </c>
+      <c r="J94" t="n">
+        <v>143.1</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3737,7 +3551,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>143.1</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3771,10 +3587,14 @@
         <v>23641.08336193674</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>142</v>
+      </c>
+      <c r="J96" t="n">
+        <v>143.1</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3808,10 +3628,14 @@
         <v>35371.39066193674</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="J97" t="n">
+        <v>143.1</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3848,7 +3672,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>143.1</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3885,7 +3711,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>143.1</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3922,7 +3750,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>143.1</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3959,7 +3789,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>143.1</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3996,7 +3828,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>143.1</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4033,7 +3867,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>143.1</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4070,7 +3906,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>143.1</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4107,7 +3945,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>143.1</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4141,12 +3981,12 @@
         <v>-64686.99313806325</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>145.7</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>143.1</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4180,10 +4020,14 @@
         <v>-39649.44623806325</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>144.1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>143.1</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4217,10 +4061,14 @@
         <v>-39670.12163806325</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="J108" t="n">
+        <v>143.1</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4254,10 +4102,14 @@
         <v>-41273.92523806325</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>145.2</v>
+      </c>
+      <c r="J109" t="n">
+        <v>143.1</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4294,7 +4146,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>143.1</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4328,10 +4182,14 @@
         <v>-38209.15523806325</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>145.1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>143.1</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4365,10 +4223,14 @@
         <v>-38315.93013806325</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="J112" t="n">
+        <v>143.1</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4402,10 +4264,14 @@
         <v>-38215.93013806325</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>143.1</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4439,10 +4305,14 @@
         <v>-39599.87913806325</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>147</v>
+      </c>
+      <c r="J114" t="n">
+        <v>143.1</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4454,6 +4324,6 @@
       <c r="M114" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest ABT.xlsx
+++ b/BackTest/2020-01-24 BackTest ABT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-10222.87612078581</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-10222.87612078581</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-10222.87612078581</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-10222.87612078581</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-12305.57212078581</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-11767.95582078581</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-11767.95582078581</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-11761.44962078581</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-12514.08762078581</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-12514.08762078581</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-15247.27542078581</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-15247.27542078581</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-15247.27542078581</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-15247.27542078581</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-14049.62522078581</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-12375.12522078581</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-8256.125220785809</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-8106.125220785809</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-8106.125220785809</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-8206.125220785809</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-5706.125220785809</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-2956.125220785809</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-3056.125220785809</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-3046.125220785809</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-119309.6795207858</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-113419.0911207858</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-115215.6252207858</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2134,11 +2134,17 @@
         <v>-80335.99162078579</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>149.9</v>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2173,17 @@
         <v>-80335.99162078579</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>150</v>
+      </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2216,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2253,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2290,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2327,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2364,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2401,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2438,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2471,17 @@
         <v>-46140.01932078578</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>149</v>
+      </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2514,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2551,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2588,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2625,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2658,17 @@
         <v>-43253.51532078578</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>143.2</v>
+      </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2701,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2738,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2775,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +2812,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +2849,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +2886,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +2923,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +2960,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +2997,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3034,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3071,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3108,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3145,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3182,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3219,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3256,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3293,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3330,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3367,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3404,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3441,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3478,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3515,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,15 +3548,15 @@
         <v>18342.14576193674</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>143.1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>143.1</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,17 +3585,13 @@
         <v>18342.14576193674</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>148</v>
-      </c>
-      <c r="J92" t="n">
-        <v>143.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -3466,14 +3622,10 @@
         <v>17070.72326193674</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>148</v>
-      </c>
-      <c r="J93" t="n">
-        <v>143.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3512,9 +3664,7 @@
       <c r="I94" t="n">
         <v>144</v>
       </c>
-      <c r="J94" t="n">
-        <v>143.1</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3551,9 +3701,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>143.1</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3587,14 +3735,10 @@
         <v>23641.08336193674</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>142</v>
-      </c>
-      <c r="J96" t="n">
-        <v>143.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3628,14 +3772,10 @@
         <v>35371.39066193674</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>146.9</v>
-      </c>
-      <c r="J97" t="n">
-        <v>143.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3672,9 +3812,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>143.1</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3711,9 +3849,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>143.1</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3750,9 +3886,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>143.1</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3789,9 +3923,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>143.1</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3828,9 +3960,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>143.1</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3867,9 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>143.1</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3906,9 +4034,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>143.1</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3945,9 +4071,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>143.1</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3984,9 +4108,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>143.1</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4020,14 +4142,10 @@
         <v>-39649.44623806325</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>144.1</v>
-      </c>
-      <c r="J107" t="n">
-        <v>143.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4061,14 +4179,10 @@
         <v>-39670.12163806325</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>145.9</v>
-      </c>
-      <c r="J108" t="n">
-        <v>143.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4102,14 +4216,10 @@
         <v>-41273.92523806325</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>145.2</v>
-      </c>
-      <c r="J109" t="n">
-        <v>143.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4146,9 +4256,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>143.1</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4182,14 +4290,10 @@
         <v>-38209.15523806325</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>145.1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>143.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4223,14 +4327,10 @@
         <v>-38315.93013806325</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="J112" t="n">
-        <v>143.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4264,14 +4364,10 @@
         <v>-38215.93013806325</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>146.1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>143.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4305,14 +4401,10 @@
         <v>-39599.87913806325</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>147</v>
-      </c>
-      <c r="J114" t="n">
-        <v>143.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4324,6 +4416,6 @@
       <c r="M114" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest ABT.xlsx
+++ b/BackTest/2020-01-24 BackTest ABT.xlsx
@@ -451,7 +451,7 @@
         <v>-10222.87612078581</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-10222.87612078581</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-11767.95582078581</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-11761.44962078581</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-12514.08762078581</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-12514.08762078581</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-12375.12522078581</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-12375.12522078581</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-12375.12522078581</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-8256.125220785809</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-8106.125220785809</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-8106.125220785809</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-8206.125220785809</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-5706.125220785809</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-3056.125220785809</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-3046.125220785809</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-119309.6795207858</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-113419.0911207858</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-113688.2323207858</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1804,11 +1804,17 @@
         <v>-96629.27392078581</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>150.2</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1843,17 @@
         <v>-97053.98582078581</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>153.7</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1882,17 @@
         <v>-105463.2426207858</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>153.6</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +1921,17 @@
         <v>-108109.5118207858</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>151.3</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +1960,17 @@
         <v>-126068.7839207858</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>151</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +1999,17 @@
         <v>-103969.1558207858</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>149</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2038,17 @@
         <v>-104771.5062207858</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>149.1</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2077,17 @@
         <v>-103738.7862207858</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>148.9</v>
+      </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2116,17 @@
         <v>-87214.4568207858</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>149.4</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2155,17 @@
         <v>-87214.4568207858</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>149.9</v>
+      </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2142,7 +2202,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2249,9 +2309,11 @@
         <v>-40792.82322078579</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>153</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2323,9 +2385,11 @@
         <v>-43142.82422078578</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>150</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2360,9 +2424,11 @@
         <v>-42631.73992078578</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>143.1</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2397,9 +2463,11 @@
         <v>-46140.01932078578</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>149.7</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2547,9 +2615,11 @@
         <v>-46829.53862078578</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>148.9</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2584,9 +2654,11 @@
         <v>-44428.22782078578</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>148.9</v>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2621,9 +2693,11 @@
         <v>-44449.58272078578</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>149</v>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2697,9 +2771,11 @@
         <v>-53225.12922078578</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>149</v>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -2734,9 +2810,11 @@
         <v>-55074.23932078577</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>148</v>
+      </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -2771,9 +2849,11 @@
         <v>-45477.14272078578</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>147</v>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -2808,9 +2888,11 @@
         <v>-40649.95842078578</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>149</v>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -2845,9 +2927,11 @@
         <v>-43570.53942078578</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>151.9</v>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -2919,9 +3003,11 @@
         <v>-37474.78512078577</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>151.9</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -2993,9 +3079,11 @@
         <v>-38071.83012078577</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>148.4</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3067,9 +3155,11 @@
         <v>-37957.11502078577</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>148.5</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3104,9 +3194,11 @@
         <v>-37957.11502078577</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>148.5</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3141,9 +3233,11 @@
         <v>-41010.28692078577</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>148.5</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3215,9 +3309,11 @@
         <v>-42387.21682078577</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>147.5</v>
+      </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3252,9 +3348,11 @@
         <v>-42048.49492078577</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>147.3</v>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3289,9 +3387,11 @@
         <v>-42048.49492078577</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>148.4</v>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3326,9 +3426,11 @@
         <v>-42184.80092078577</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>148.4</v>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3363,9 +3465,11 @@
         <v>-42184.80092078577</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>148.3</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3400,9 +3504,11 @@
         <v>-30698.02613806326</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>148.3</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3437,9 +3543,11 @@
         <v>16520.68086193674</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>149</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -3511,9 +3619,11 @@
         <v>16287.80586193674</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>146</v>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3548,9 +3658,11 @@
         <v>18342.14576193674</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>143.1</v>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -3585,9 +3697,11 @@
         <v>18342.14576193674</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>148</v>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -3622,9 +3736,11 @@
         <v>17070.72326193674</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>148</v>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -3698,9 +3814,11 @@
         <v>17026.07336193674</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>147.7</v>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -3735,9 +3853,11 @@
         <v>23641.08336193674</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>142</v>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -4068,9 +4188,11 @@
         <v>-59985.41853806325</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>146</v>
+      </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4105,9 +4227,11 @@
         <v>-64686.99313806325</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>145.7</v>
+      </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4142,9 +4266,11 @@
         <v>-39649.44623806325</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>144.1</v>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4327,9 +4453,11 @@
         <v>-38315.93013806325</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>148.2</v>
+      </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -4364,9 +4492,11 @@
         <v>-38215.93013806325</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>146.1</v>
+      </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -4401,9 +4531,11 @@
         <v>-39599.87913806325</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>147</v>
+      </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>

--- a/BackTest/2020-01-24 BackTest ABT.xlsx
+++ b/BackTest/2020-01-24 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M114"/>
+  <dimension ref="A1:L114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>247</v>
       </c>
       <c r="G2" t="n">
-        <v>-10222.87612078581</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>591.3739</v>
       </c>
       <c r="G3" t="n">
-        <v>-10222.87612078581</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>513.1634</v>
       </c>
       <c r="G4" t="n">
-        <v>-10222.87612078581</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>513.1634</v>
       </c>
       <c r="G5" t="n">
-        <v>-10222.87612078581</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>2082.696</v>
       </c>
       <c r="G6" t="n">
-        <v>-12305.57212078581</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>537.6163</v>
       </c>
       <c r="G7" t="n">
-        <v>-11767.95582078581</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>537.6163</v>
       </c>
       <c r="G8" t="n">
-        <v>-11767.95582078581</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>6.5062</v>
       </c>
       <c r="G9" t="n">
-        <v>-11761.44962078581</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>752.638</v>
       </c>
       <c r="G10" t="n">
-        <v>-12514.08762078581</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>250</v>
       </c>
       <c r="G11" t="n">
-        <v>-12764.08762078581</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>500</v>
       </c>
       <c r="G12" t="n">
-        <v>-12264.08762078581</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>250</v>
       </c>
       <c r="G13" t="n">
-        <v>-12514.08762078581</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>252.638</v>
       </c>
       <c r="G14" t="n">
-        <v>-12514.08762078581</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>24</v>
       </c>
       <c r="G15" t="n">
-        <v>-12538.08762078581</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>250</v>
       </c>
       <c r="G16" t="n">
-        <v>-12288.08762078581</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>610.5429</v>
       </c>
       <c r="G17" t="n">
-        <v>-11677.54472078581</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>3569.7307</v>
       </c>
       <c r="G18" t="n">
-        <v>-15247.27542078581</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>250</v>
       </c>
       <c r="G19" t="n">
-        <v>-15247.27542078581</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>3018.2047</v>
       </c>
       <c r="G20" t="n">
-        <v>-15247.27542078581</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>2131</v>
       </c>
       <c r="G21" t="n">
-        <v>-15247.27542078581</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1453</v>
       </c>
       <c r="G22" t="n">
-        <v>-13794.27542078581</v>
-      </c>
-      <c r="H22" t="n">
         <v>2</v>
       </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>255.3498</v>
       </c>
       <c r="G23" t="n">
-        <v>-14049.62522078581</v>
-      </c>
-      <c r="H23" t="n">
         <v>2</v>
       </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>1674.5</v>
       </c>
       <c r="G24" t="n">
-        <v>-12375.12522078581</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>800</v>
       </c>
       <c r="G25" t="n">
-        <v>-12375.12522078581</v>
-      </c>
-      <c r="H25" t="n">
         <v>2</v>
       </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>182.2939</v>
       </c>
       <c r="G26" t="n">
-        <v>-12375.12522078581</v>
-      </c>
-      <c r="H26" t="n">
         <v>2</v>
       </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>4119</v>
       </c>
       <c r="G27" t="n">
-        <v>-8256.125220785809</v>
-      </c>
-      <c r="H27" t="n">
         <v>2</v>
       </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>1300</v>
       </c>
       <c r="G28" t="n">
-        <v>-9556.125220785809</v>
-      </c>
-      <c r="H28" t="n">
         <v>2</v>
       </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>1500</v>
       </c>
       <c r="G29" t="n">
-        <v>-9556.125220785809</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1450</v>
       </c>
       <c r="G30" t="n">
-        <v>-8106.125220785809</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>1500</v>
       </c>
       <c r="G31" t="n">
-        <v>-8106.125220785809</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>-8206.125220785809</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>2500</v>
       </c>
       <c r="G33" t="n">
-        <v>-5706.125220785809</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>2750</v>
       </c>
       <c r="G34" t="n">
-        <v>-2956.125220785809</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>100</v>
       </c>
       <c r="G35" t="n">
-        <v>-3056.125220785809</v>
-      </c>
-      <c r="H35" t="n">
         <v>2</v>
       </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,19 @@
         <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>-3046.125220785809</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>151.1</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1497,21 @@
         <v>116263.5543</v>
       </c>
       <c r="G37" t="n">
-        <v>-119309.6795207858</v>
-      </c>
-      <c r="H37" t="n">
         <v>2</v>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1533,21 @@
         <v>5890.5884</v>
       </c>
       <c r="G38" t="n">
-        <v>-113419.0911207858</v>
-      </c>
-      <c r="H38" t="n">
         <v>2</v>
       </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1569,21 @@
         <v>269.1412</v>
       </c>
       <c r="G39" t="n">
-        <v>-113688.2323207858</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1605,21 @@
         <v>5056.6178</v>
       </c>
       <c r="G40" t="n">
-        <v>-108631.6145207858</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1641,21 @@
         <v>787.0564000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>-109418.6709207858</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1677,21 @@
         <v>5796.9543</v>
       </c>
       <c r="G42" t="n">
-        <v>-115215.6252207858</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,24 +1713,21 @@
         <v>18586.3513</v>
       </c>
       <c r="G43" t="n">
-        <v>-96629.27392078581</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>150.2</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1840,24 +1749,21 @@
         <v>424.7119</v>
       </c>
       <c r="G44" t="n">
-        <v>-97053.98582078581</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
-        <v>153.7</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1879,24 +1785,21 @@
         <v>8409.256799999999</v>
       </c>
       <c r="G45" t="n">
-        <v>-105463.2426207858</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>153.6</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1918,24 +1821,21 @@
         <v>2646.2692</v>
       </c>
       <c r="G46" t="n">
-        <v>-108109.5118207858</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>151.3</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1957,24 +1857,21 @@
         <v>17959.2721</v>
       </c>
       <c r="G47" t="n">
-        <v>-126068.7839207858</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
-        <v>151</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1996,24 +1893,21 @@
         <v>22099.6281</v>
       </c>
       <c r="G48" t="n">
-        <v>-103969.1558207858</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>149</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2035,24 +1929,21 @@
         <v>802.3504</v>
       </c>
       <c r="G49" t="n">
-        <v>-104771.5062207858</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2074,24 +1965,21 @@
         <v>1032.72</v>
       </c>
       <c r="G50" t="n">
-        <v>-103738.7862207858</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2113,24 +2001,21 @@
         <v>16524.3294</v>
       </c>
       <c r="G51" t="n">
-        <v>-87214.4568207858</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
-        <v>149.4</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2152,24 +2037,21 @@
         <v>4077.2783</v>
       </c>
       <c r="G52" t="n">
-        <v>-87214.4568207858</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>149.9</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2191,24 +2073,21 @@
         <v>6878.4652</v>
       </c>
       <c r="G53" t="n">
-        <v>-80335.99162078579</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
-        <v>149.9</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2230,24 +2109,21 @@
         <v>9799.9514</v>
       </c>
       <c r="G54" t="n">
-        <v>-80335.99162078579</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>150</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2269,22 +2145,21 @@
         <v>26149.9927</v>
       </c>
       <c r="G55" t="n">
-        <v>-54185.99892078579</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2306,24 +2181,21 @@
         <v>13393.1757</v>
       </c>
       <c r="G56" t="n">
-        <v>-40792.82322078579</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
-        <v>153</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2345,22 +2217,21 @@
         <v>1768.2212</v>
       </c>
       <c r="G57" t="n">
-        <v>-42561.04442078579</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2382,24 +2253,21 @@
         <v>581.7798</v>
       </c>
       <c r="G58" t="n">
-        <v>-43142.82422078578</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>150</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2421,24 +2289,21 @@
         <v>511.0843</v>
       </c>
       <c r="G59" t="n">
-        <v>-42631.73992078578</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
-        <v>143.1</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2460,24 +2325,21 @@
         <v>3508.2794</v>
       </c>
       <c r="G60" t="n">
-        <v>-46140.01932078578</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="n">
-        <v>149.7</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2499,22 +2361,21 @@
         <v>333.8262</v>
       </c>
       <c r="G61" t="n">
-        <v>-46140.01932078578</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2536,24 +2397,21 @@
         <v>412.2802</v>
       </c>
       <c r="G62" t="n">
-        <v>-46140.01932078578</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="n">
-        <v>149</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2575,22 +2433,21 @@
         <v>689.5193</v>
       </c>
       <c r="G63" t="n">
-        <v>-46829.53862078578</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2612,24 +2469,21 @@
         <v>3139.6207</v>
       </c>
       <c r="G64" t="n">
-        <v>-46829.53862078578</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2651,24 +2505,21 @@
         <v>2401.3108</v>
       </c>
       <c r="G65" t="n">
-        <v>-44428.22782078578</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2690,24 +2541,21 @@
         <v>21.3549</v>
       </c>
       <c r="G66" t="n">
-        <v>-44449.58272078578</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
-        <v>149</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2729,24 +2577,21 @@
         <v>1196.0674</v>
       </c>
       <c r="G67" t="n">
-        <v>-43253.51532078578</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
-        <v>143.2</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2768,24 +2613,23 @@
         <v>9971.6139</v>
       </c>
       <c r="G68" t="n">
-        <v>-53225.12922078578</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>149</v>
       </c>
       <c r="I68" t="n">
-        <v>149</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2807,24 +2651,21 @@
         <v>1849.1101</v>
       </c>
       <c r="G69" t="n">
-        <v>-55074.23932078577</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="n">
-        <v>148</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2846,24 +2687,21 @@
         <v>9597.096600000001</v>
       </c>
       <c r="G70" t="n">
-        <v>-45477.14272078578</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
-        <v>147</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2885,24 +2723,21 @@
         <v>4827.1843</v>
       </c>
       <c r="G71" t="n">
-        <v>-40649.95842078578</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
-        <v>149</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2924,24 +2759,21 @@
         <v>2920.581</v>
       </c>
       <c r="G72" t="n">
-        <v>-43570.53942078578</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="n">
-        <v>151.9</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2963,22 +2795,21 @@
         <v>8082.2025</v>
       </c>
       <c r="G73" t="n">
-        <v>-35488.33692078578</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3000,24 +2831,21 @@
         <v>1986.4482</v>
       </c>
       <c r="G74" t="n">
-        <v>-37474.78512078577</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
-        <v>151.9</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3039,22 +2867,21 @@
         <v>597.045</v>
       </c>
       <c r="G75" t="n">
-        <v>-38071.83012078577</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3076,24 +2903,21 @@
         <v>2913.4063</v>
       </c>
       <c r="G76" t="n">
-        <v>-38071.83012078577</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3115,22 +2939,21 @@
         <v>114.7151</v>
       </c>
       <c r="G77" t="n">
-        <v>-37957.11502078577</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3152,24 +2975,21 @@
         <v>852.9092000000001</v>
       </c>
       <c r="G78" t="n">
-        <v>-37957.11502078577</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="n">
-        <v>148.5</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3191,24 +3011,21 @@
         <v>159.8557</v>
       </c>
       <c r="G79" t="n">
-        <v>-37957.11502078577</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
-        <v>148.5</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3230,24 +3047,21 @@
         <v>3053.1719</v>
       </c>
       <c r="G80" t="n">
-        <v>-41010.28692078577</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
-        <v>148.5</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3269,22 +3083,21 @@
         <v>1207.3549</v>
       </c>
       <c r="G81" t="n">
-        <v>-42217.64182078577</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3306,24 +3119,21 @@
         <v>169.575</v>
       </c>
       <c r="G82" t="n">
-        <v>-42387.21682078577</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="n">
-        <v>147.5</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3345,24 +3155,21 @@
         <v>338.7219</v>
       </c>
       <c r="G83" t="n">
-        <v>-42048.49492078577</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="n">
-        <v>147.3</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3384,24 +3191,21 @@
         <v>1660.04</v>
       </c>
       <c r="G84" t="n">
-        <v>-42048.49492078577</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3423,24 +3227,21 @@
         <v>136.306</v>
       </c>
       <c r="G85" t="n">
-        <v>-42184.80092078577</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3462,24 +3263,21 @@
         <v>278.067</v>
       </c>
       <c r="G86" t="n">
-        <v>-42184.80092078577</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
-        <v>148.3</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3501,24 +3299,21 @@
         <v>11486.77478272251</v>
       </c>
       <c r="G87" t="n">
-        <v>-30698.02613806326</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="n">
-        <v>148.3</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3540,24 +3335,21 @@
         <v>47218.707</v>
       </c>
       <c r="G88" t="n">
-        <v>16520.68086193674</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="n">
-        <v>149</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3579,22 +3371,21 @@
         <v>191</v>
       </c>
       <c r="G89" t="n">
-        <v>16329.68086193674</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3616,24 +3407,21 @@
         <v>41.875</v>
       </c>
       <c r="G90" t="n">
-        <v>16287.80586193674</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="n">
-        <v>146</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3655,24 +3443,21 @@
         <v>2054.3399</v>
       </c>
       <c r="G91" t="n">
-        <v>18342.14576193674</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="n">
-        <v>143.1</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3694,24 +3479,21 @@
         <v>5682.5478</v>
       </c>
       <c r="G92" t="n">
-        <v>18342.14576193674</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="n">
-        <v>148</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3733,24 +3515,21 @@
         <v>1271.4225</v>
       </c>
       <c r="G93" t="n">
-        <v>17070.72326193674</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
-        <v>148</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3772,24 +3551,21 @@
         <v>3.9336</v>
       </c>
       <c r="G94" t="n">
-        <v>17074.65686193674</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
-        <v>144</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3811,24 +3587,21 @@
         <v>48.5835</v>
       </c>
       <c r="G95" t="n">
-        <v>17026.07336193674</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
-        <v>147.7</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3850,24 +3623,21 @@
         <v>6615.01</v>
       </c>
       <c r="G96" t="n">
-        <v>23641.08336193674</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
-        <v>142</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3889,22 +3659,21 @@
         <v>11730.3073</v>
       </c>
       <c r="G97" t="n">
-        <v>35371.39066193674</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3926,22 +3695,21 @@
         <v>328</v>
       </c>
       <c r="G98" t="n">
-        <v>35043.39066193674</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3963,22 +3731,21 @@
         <v>97817.81939999999</v>
       </c>
       <c r="G99" t="n">
-        <v>-62774.42873806325</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4000,22 +3767,21 @@
         <v>246.301</v>
       </c>
       <c r="G100" t="n">
-        <v>-62774.42873806325</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4037,22 +3803,21 @@
         <v>37.6792</v>
       </c>
       <c r="G101" t="n">
-        <v>-62812.10793806325</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4074,22 +3839,23 @@
         <v>2067.8209</v>
       </c>
       <c r="G102" t="n">
-        <v>-60744.28703806325</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>142</v>
+      </c>
+      <c r="I102" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4111,22 +3877,23 @@
         <v>1995.656</v>
       </c>
       <c r="G103" t="n">
-        <v>-58748.63103806325</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>144.1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4148,22 +3915,21 @@
         <v>239.392</v>
       </c>
       <c r="G104" t="n">
-        <v>-58748.63103806325</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4185,24 +3951,21 @@
         <v>1236.7875</v>
       </c>
       <c r="G105" t="n">
-        <v>-59985.41853806325</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
-        <v>146</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4224,24 +3987,21 @@
         <v>4701.5746</v>
       </c>
       <c r="G106" t="n">
-        <v>-64686.99313806325</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="n">
-        <v>145.7</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4263,24 +4023,21 @@
         <v>25037.5469</v>
       </c>
       <c r="G107" t="n">
-        <v>-39649.44623806325</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
-        <v>144.1</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4302,22 +4059,21 @@
         <v>20.6754</v>
       </c>
       <c r="G108" t="n">
-        <v>-39670.12163806325</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4339,22 +4095,21 @@
         <v>1603.8036</v>
       </c>
       <c r="G109" t="n">
-        <v>-41273.92523806325</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4376,22 +4131,23 @@
         <v>1235.5716</v>
       </c>
       <c r="G110" t="n">
-        <v>-41273.92523806325</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>145.1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4413,22 +4169,23 @@
         <v>3064.77</v>
       </c>
       <c r="G111" t="n">
-        <v>-38209.15523806325</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>145.1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4450,24 +4207,21 @@
         <v>106.7749</v>
       </c>
       <c r="G112" t="n">
-        <v>-38315.93013806325</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4489,24 +4243,21 @@
         <v>100</v>
       </c>
       <c r="G113" t="n">
-        <v>-38215.93013806325</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="n">
-        <v>146.1</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4528,24 +4279,21 @@
         <v>1383.949</v>
       </c>
       <c r="G114" t="n">
-        <v>-39599.87913806325</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="n">
-        <v>147</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
